--- a/tests/data/multiple_id_columns_group.xlsx
+++ b/tests/data/multiple_id_columns_group.xlsx
@@ -1,63 +1,187 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jedpreist/CodingStuff/DIMPACT/eam-data-tools/tests/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65917E0A-DB55-E942-B446-0E29872C3A09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26780" windowHeight="12260" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="params" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="energy_intensity_network" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="changes" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="metadata" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="params" sheetId="1" r:id="rId1"/>
+    <sheet name="energy_intensity_network" sheetId="2" r:id="rId2"/>
+    <sheet name="changes" sheetId="3" r:id="rId3"/>
+    <sheet name="metadata" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>param</t>
+  </si>
+  <si>
+    <t>ref value</t>
+  </si>
+  <si>
+    <t>mean growth</t>
+  </si>
+  <si>
+    <t>initial_value_proportional_variation</t>
+  </si>
+  <si>
+    <t>variability growth</t>
+  </si>
+  <si>
+    <t>ref date</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>scenario notes</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>ui variable</t>
+  </si>
+  <si>
+    <t>user name</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>power_laptop</t>
+  </si>
+  <si>
+    <t>interp</t>
+  </si>
+  <si>
+    <t>linear</t>
+  </si>
+  <si>
+    <t>{"2020-01-01":10, "2031-06-01":9.5}</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>what does it mean? How do collect this info?</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>power draw of laptop</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>energy_intensity_network</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>kWh/GB</t>
+  </si>
+  <si>
+    <t>31.7.18</t>
+  </si>
+  <si>
+    <t>DS change all to lowercase</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
-      <b val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -93,19 +217,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -175,6 +301,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -474,516 +608,400 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:T9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="3.33203125" customWidth="1" min="12" max="12"/>
-    <col width="3.5" customWidth="1" min="13" max="13"/>
-    <col width="2.6640625" customWidth="1" min="14" max="14"/>
-    <col width="2.1640625" customWidth="1" min="15" max="15"/>
-    <col width="2.5" customWidth="1" min="16" max="16"/>
+    <col min="12" max="12" width="3.33203125" customWidth="1"/>
+    <col min="13" max="13" width="3.5" customWidth="1"/>
+    <col min="14" max="14" width="2.6640625" customWidth="1"/>
+    <col min="15" max="15" width="2.1640625" customWidth="1"/>
+    <col min="16" max="16" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>variable</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>scenario</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>group</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>param</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>ref value</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>mean growth</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>initial_value_proportional_variation</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>variability growth</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>ref date</t>
-        </is>
-      </c>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>unit</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>source</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>comment</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>control</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>scenario notes</t>
-        </is>
-      </c>
-      <c r="Q1" s="3" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>ui variable</t>
-        </is>
-      </c>
-      <c r="S1" s="3" t="inlineStr">
-        <is>
-          <t>user name</t>
-        </is>
-      </c>
-      <c r="T1" s="4" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>power_laptop</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>interp</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>linear</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>{"2020-01-01":10, "2031-06-01":9.5}</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H2" t="n">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>0.1</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>0.05</v>
       </c>
-      <c r="J2" s="5" t="n">
+      <c r="J2" s="5">
         <v>43617</v>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="Q2" s="6" t="inlineStr">
-        <is>
-          <t>what does it mean? How do collect this info?</t>
-        </is>
-      </c>
-      <c r="R2" s="6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S2" s="6" t="inlineStr">
-        <is>
-          <t>power draw of laptop</t>
-        </is>
-      </c>
-      <c r="T2" t="n">
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>power_laptop</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>interp</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>linear</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>{"2020-01-01":10, "2031-06-01":9.5}</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
+      <c r="U2">
         <v>0</v>
       </c>
-      <c r="H3" t="n">
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>0.1</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>0.05</v>
       </c>
-      <c r="J3" s="5" t="n">
+      <c r="J3" s="5">
         <v>43617</v>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="R3" s="6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T3" t="n">
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4">
         <v>0</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>power_laptop</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>interp</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>linear</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>{"2020-01-01":10, "2031-06-01":9.5}</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>0.1</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>0.05</v>
       </c>
-      <c r="J4" s="5" t="n">
+      <c r="J4" s="5">
         <v>43617</v>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="R4" s="6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T4" t="n">
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>energy_intensity_network</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>exp</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+      <c r="U4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5">
         <v>20</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>0.25</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>0.1</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>0.1</v>
       </c>
-      <c r="J5" s="5" t="n">
+      <c r="J5" s="5">
         <v>42522</v>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>kWh/GB</t>
-        </is>
-      </c>
-      <c r="T5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6"/>
-    <row r="7">
-      <c r="I7" s="5" t="n"/>
-    </row>
-    <row r="8"/>
-    <row r="9">
-      <c r="E9" s="6" t="n"/>
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5">
+        <v>3</v>
+      </c>
+      <c r="U5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="I7" s="5"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="E9" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup orientation="portrait" paperSize="9" firstPageNumber="0" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="22.83203125" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>group</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>scenario</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ref value</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>mean growth</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>initial_value_proportional_variation</t>
-        </is>
-      </c>
-      <c r="F1" s="6" t="inlineStr">
-        <is>
-          <t>variability growth</t>
-        </is>
-      </c>
-      <c r="G1" s="6" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2">
         <v>20</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0.25</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>0.1</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>0.1</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>4</v>
       </c>
-      <c r="J2" s="5" t="n"/>
-      <c r="T2" t="n">
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="T2">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3">
         <v>20</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>0.25</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>0.1</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>0.1</v>
       </c>
-      <c r="G3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" s="5" t="n"/>
-      <c r="T3" t="n">
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="T3">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup orientation="portrait" paperSize="9" firstPageNumber="0" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="7" t="inlineStr">
-        <is>
-          <t>31.7.18</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>DS change all to lowercase</t>
-        </is>
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup orientation="portrait" paperSize="9" firstPageNumber="0" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="7" t="inlineStr">
-        <is>
-          <t>version</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="n">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="7">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup orientation="portrait" paperSize="9" firstPageNumber="0" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>